--- a/攻略/配置单 (version 1).xlsb.xlsx
+++ b/攻略/配置单 (version 1).xlsb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\仓库1\story\攻略\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AF0612-202D-4BA1-8EFB-89C6F495A7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51CC594-8DFD-42CA-B167-746C51DE972C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2505" yWindow="2730" windowWidth="21570" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,62 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已花费：7902+552+3629 = 12083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余：644+755+1342+425+559 = 3725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计花费：15808；原预算：15226；超支预算：582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超支项目：增加了一块价值425的硬盘（属于原计划内）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后总超支：157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDD：3629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝：7902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超支原因：主板增加80元，机箱增加42元，显卡超支37元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视4T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东花费：644+755+1342 = 2741</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +452,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -417,11 +479,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -429,10 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -748,10 +811,10 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -760,8 +823,8 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -914,10 +977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F939E97F-D981-4D50-9B2A-C169E8C2A383}">
-  <dimension ref="A3:I23"/>
+  <dimension ref="A3:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -926,13 +989,14 @@
     <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -955,46 +1019,52 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>3619</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>3549</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>3569</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>3573</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>3549</v>
       </c>
       <c r="I4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -1017,36 +1087,39 @@
         <v>7865</v>
       </c>
       <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1069,209 +1142,276 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9">
+        <v>425</v>
+      </c>
+      <c r="H9">
+        <v>425</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>559</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>559</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="3">
         <v>493</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="3">
         <v>497</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="3">
         <v>497</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="3">
         <v>599</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="3">
         <v>596</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="3">
         <v>517</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="3">
         <v>515</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="3">
         <v>517</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="3">
         <v>374</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="3">
         <v>405</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="3">
         <v>382</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="3">
         <v>382</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I13" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>755</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>755</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>187</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>53</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>510</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>64</v>
       </c>
       <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="E19">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>649</v>
+      </c>
+      <c r="H20">
+        <v>644</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
         <v>77</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
